--- a/data/excel/Robinson Crusoe (version 2)/CHAPTER 17.xlsx
+++ b/data/excel/Robinson Crusoe (version 2)/CHAPTER 17.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCutAudio\ExcelFile\Robinson Crusoe (version 2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBackUpOnGitHub\CutAudio\CutAudio.github.io\data\excel\Robinson Crusoe (version 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">  In a little time, however, no more canoes appearing, the fear of their coming wore off; and I began to take my former thoughts of a voyage to the main into consideration; being likewise assured by Friday’s father that I might depend upon good usage from their nation, on his account, if I would go.</t>
   </si>
@@ -74,9 +74,6 @@
     <t>The case was thus: he had been with us now about a month, during which time I had let him see in what manner I had provided, with the assistance of Providence, for my support; and he saw evidently what stock of corn and rice I had laid up; which, though it was more than sufficient for myself, yet it was not sufficient, without good husbandry, for my family, now it was increased to four; but much less would it be sufficient if his countrymen, who were, as he said, sixteen, still alive, should come over; and least of all would it be sufficient to victual our vessel, if we should build one, for a voyage to any of the Christian colonies of America; so he told me he thought it would be more advisable to let him and the other two dig and cultivate some more land, as much as I could spare seed to sow, and that we should wait another harvest, that we might have a supply of corn for his countrymen, when they should come; for want might be a temptation to them to disagree, or not to think themselves delivered, otherwise than out of one difficulty into another.</t>
   </si>
   <si>
-    <t>“You know,” says he, “the children of Israel, though they rejoiced at first for their being delivered out of Egypt, yet rebelled even against God Himself, that delivered them, when they came to want bread in the wilderness.”  His caution was so seasonable, and his advice so good, that I could not but be very well pleased with his proposal, as well as I was satisfied with his fidelity; so we fell to digging, all four of us, as well as the wooden tools we were furnished with permitted; and in about a month’s time, by the end of which it was seed time, we had got as much land cured and trimmed up as we sowed two and twenty bushels of barley on, and sixteen jars of rice, which was, in short, all the seed we had to spare: indeed, we left ourselves barely sufficient, for our own food for the six months that we had to expect our crop; that is to say reckoning from the time we set our seed aside for sowing; for it is not to be supposed it is six months in the ground in that country.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Having now society enough, and our numbers being sufficient to put us out of fear of the savages, if they had come, unless their number had been very great, we went freely all over the island, whenever we found occasion; and as we had our escape or deliverance upon our thoughts, it was impossible, at least for me, to have the means of it out of mine.</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>Friday called out to me in English, as well as he could, “O master!</t>
   </si>
   <si>
-    <t>you see English mans eat prisoner as well as savage mans.” “Why, Friday,” says I, “do you think they are going to eat them, then?” “Yes,” says Friday, “they will eat them.” “No no,” says I, “Friday; I am afraid they will murder them, indeed; but you may be sure they will not eat them.”  All this while I had no thought of what the matter really was, but stood trembling with the horror of the sight, expecting every moment when the three prisoners should be killed; nay, once I saw one of the villains lift up his arm with a great cutlass, as the seamen call it, or sword, to strike one of the poor men; and I expected to see him fall every moment; at which all the blood in my body seemed to run chill in my veins.</t>
-  </si>
-  <si>
     <t>I wished heartily now for the Spaniard, and the savage that had gone with him, or that I had any way to have come undiscovered within shot of them, that I might have secured the three men, for I saw no firearms they had among them; but it fell out to my mind another way.</t>
   </si>
   <si>
@@ -236,66 +230,33 @@
     <t>They made no answer at all, but I thought I perceived them just going to fly from me, when I spoke to them in English.</t>
   </si>
   <si>
-    <t>“Gentlemen,” said I, “do not be surprised at me; perhaps you may have a friend near when you did not expect it.” “He must be sent directly from heaven then,” said one of them very gravely to me, and pulling off his hat at the same time to me; “for our condition is past the help of man.” “All help is from heaven, sir,” said I, “but can you put a stranger in the way to help you?</t>
-  </si>
-  <si>
     <t>for you seem to be in some great distress.</t>
   </si>
   <si>
-    <t>I saw you when you landed; and when you seemed to make application to the brutes that came with you, I saw one of them lift up his sword to kill you.”  The poor man, with tears running down his face, and trembling, looking like one astonished, returned, “Am I talking to God or man?</t>
-  </si>
-  <si>
     <t>Is it a real man or an angel?” “Be in no fear about that, sir,” said I; “if God had sent an angel to relieve you, he would have come better clothed, and armed after another manner than you see me; pray lay aside your fears; I am a man, an Englishman, and disposed to assist you; you see I have one servant only; we have arms and ammunition; tell us freely, can we serve you?</t>
   </si>
   <si>
-    <t>What is your case?” “Our case, sir,” said he, “is too long to tell you while our murderers are so near us; but, in short, sir, I was commander of that ship—my men have mutinied against me; they have been hardly prevailed on not to murder me, and, at last, have set me on shore in this desolate place, with these two men with me—one my mate, the other a passenger—where we expected to perish, believing the place to be uninhabited, and know not yet what to think of it.” “Where are these brutes, your enemies?” said I; “do you know where they are gone?</t>
-  </si>
-  <si>
-    <t>There they lie, sir,” said he, pointing to a thicket of trees; “my heart trembles for fear they have seen us and heard you speak; if they have, they will certainly murder us all.” “Have they any firearms?” said I.</t>
-  </si>
-  <si>
-    <t>He answered, “They had only two pieces, one of which they left in the boat.” “Well, then,” said I, “leave the rest to me; I see they are all asleep; it is an easy thing to kill them all; but shall we rather take them prisoners?” He told me there were two desperate villains among them that it was scarce safe to show any mercy to; but if they were secured, he believed all the rest would return to their duty.</t>
-  </si>
-  <si>
     <t>I asked him which they were.</t>
   </si>
   <si>
     <t>He told me he could not at that distance distinguish them, but he would obey my orders in anything I would direct.</t>
   </si>
   <si>
-    <t>“Well,” says I, “let us retreat out of their view or hearing, lest they awake, and we will resolve further.” So they willingly went back with me, till the woods covered us from them.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> “Look you, sir,” said I, “if I venture upon your deliverance, are you willing to make two conditions with me?” He anticipated my proposals by telling me that both he and the ship, if recovered, should be wholly directed and commanded by me in everything; and if the ship was not recovered, he would live and die with me in what part of the world soever I would send him; and the two other men said the same.</t>
   </si>
   <si>
-    <t>“Well,” says I, “my conditions are but two; first, that while you stay in this island with me, you will not pretend to any authority here; and if I put arms in your hands, you will, upon all occasions, give them up to me, and do no prejudice to me or mine upon this island, and in the meantime be governed by my orders; secondly, that if the ship is or may be recovered, you will carry me and my man to England passage free.”  He gave me all the assurances that the invention or faith of man could devise that he would comply with these most reasonable demands, and besides would owe his life to me, and acknowledge it upon all occasions as long as he lived.</t>
-  </si>
-  <si>
-    <t>“Well, then,” said I, “here are three muskets for you, with powder and ball; tell me next what you think is proper to be done.” He showed all the testimonies of his gratitude that he was able, but offered to be wholly guided by me.</t>
-  </si>
-  <si>
     <t>I told him I thought it was very hard venturing anything; but the best method I could think of was to fire on them at once as they lay, and if any were not killed at the first volley, and offered to submit, we might save them, and so put it wholly upon God’s providence to direct the shot.</t>
   </si>
   <si>
     <t>He said, very modestly, that he was loath to kill them if he could help it; but that those two were incorrigible villains, and had been the authors of all the mutiny in the ship, and if they escaped, we should be undone still, for they would go on board and bring the whole ship’s company, and destroy us all.</t>
   </si>
   <si>
-    <t>“Well, then,” says I, “necessity legitimates my advice, for it is the only way to save our lives.” However, seeing him still cautious of shedding blood, I told him they should go themselves, and manage as they found convenient.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> In the middle of this discourse we heard some of them awake, and soon after we saw two of them on their feet.</t>
   </si>
   <si>
     <t>I asked him if either of them were the heads of the mutiny?</t>
   </si>
   <si>
-    <t>He said, “No.” “Well, then,” said I, “you may let them escape; and Providence seems to have awakened them on purpose to save themselves.</t>
-  </si>
-  <si>
-    <t>Now,” says I, “if the rest escape you, it is your fault.” Animated with this, he took the musket I had given him in his hand, and a pistol in his belt, and his two comrades with him, with each a piece in his hand; the two men who were with him going first made some noise, at which one of the seamen who was awake turned about, and seeing them coming, cried out to the rest; but was too late then, for the moment he cried out they fired—I mean the two men, the captain wisely reserving his own piece.</t>
-  </si>
-  <si>
     <t>They had so well aimed their shot at the men they knew, that one of them was killed on the spot, and the other very much wounded; but not being dead, he started up on his feet, and called eagerly for help to the other; but the captain stepping to him, told him it was too late to cry for help, he should call upon God to forgive his villainy, and with that word knocked him down with the stock of his musket, so that he never spoke more; there were three more in the company, and one of them was slightly wounded.</t>
   </si>
   <si>
@@ -357,6 +318,93 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> His caution was so seasonable, and his advice so good, that I could not but be very well pleased with his proposal, as well as I was satisfied with his fidelity; so we fell to digging, all four of us, as well as the wooden tools we were furnished with permitted; and in about a month’s time, by the end of which it was seed time, we had got as much land cured and trimmed up as we sowed two and twenty bushels of barley on, and sixteen jars of rice, which was, in short, all the seed we had to spare: indeed, we left ourselves barely sufficient, for our own food for the six months that we had to expect our crop; that is to say reckoning from the time we set our seed aside for sowing; for it is not to be supposed it is six months in the ground in that country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All this while I had no thought of what the matter really was, but stood trembling with the horror of the sight, expecting every moment when the three prisoners should be killed; nay, once I saw one of the villains lift up his arm with a great cutlass, as the seamen call it, or sword, to strike one of the poor men; and I expected to see him fall every moment; at which all the blood in my body seemed to run chill in my veins.</t>
+  </si>
+  <si>
+    <t>“All help is from heaven, sir,” said I, “but can you put a stranger in the way to help you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The poor man, with tears running down his face, and trembling, looking like one astonished, returned, “Am I talking to God or man?</t>
+  </si>
+  <si>
+    <t>“Where are these brutes, your enemies?” said I; “do you know where they are gone?</t>
+  </si>
+  <si>
+    <t>“Have they any firearms?” said I.</t>
+  </si>
+  <si>
+    <t>“Well, then,” said I, “leave the rest to me; I see they are all asleep; it is an easy thing to kill them all; but shall we rather take them prisoners?” He told me there were two desperate villains among them that it was scarce safe to show any mercy to; but if they were secured, he believed all the rest would return to their duty.</t>
+  </si>
+  <si>
+    <t>So they willingly went back with me, till the woods covered us from them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He gave me all the assurances that the invention or faith of man could devise that he would comply with these most reasonable demands, and besides would owe his life to me, and acknowledge it upon all occasions as long as he lived.</t>
+  </si>
+  <si>
+    <t>He showed all the testimonies of his gratitude that he was able, but offered to be wholly guided by me.</t>
+  </si>
+  <si>
+    <t>However, seeing him still cautious of shedding blood, I told him they should go themselves, and manage as they found convenient.</t>
+  </si>
+  <si>
+    <t>“Well, then,” said I, “you may let them escape; and Providence seems to have awakened them on purpose to save themselves.</t>
+  </si>
+  <si>
+    <t>Animated with this, he took the musket I had given him in his hand, and a pistol in his belt, and his two comrades with him, with each a piece in his hand; the two men who were with him going first made some noise, at which one of the seamen who was awake turned about, and seeing them coming, cried out to the rest; but was too late then, for the moment he cried out they fired—I mean the two men, the captain wisely reserving his own piece.</t>
+  </si>
+  <si>
+    <t>“You know,” says he, “the children of Israel, though they rejoiced at first for their being delivered out of Egypt, yet rebelled even against God Himself, that delivered them, when they came to want bread in the wilderness.”</t>
+  </si>
+  <si>
+    <t>you see English mans eat prisoner as well as savage mans.”</t>
+  </si>
+  <si>
+    <t>“Why, Friday,” says I, “do you think they are going to eat them, then?” “Yes,” says Friday, “they will eat them.”</t>
+  </si>
+  <si>
+    <t>“No no,” says I, “Friday; I am afraid they will murder them, indeed; but you may be sure they will not eat them.”</t>
+  </si>
+  <si>
+    <t>“Gentlemen,” said I, “do not be surprised at me; perhaps you may have a friend near when you did not expect it.”</t>
+  </si>
+  <si>
+    <t>“He must be sent directly from heaven then,” said one of them very gravely to me, and pulling off his hat at the same time to me; “for our condition is past the help of man.”</t>
+  </si>
+  <si>
+    <t>I saw you when you landed; and when you seemed to make application to the brutes that came with you, I saw one of them lift up his sword to kill you.”</t>
+  </si>
+  <si>
+    <t>What is your case?” “Our case, sir,” said he, “is too long to tell you while our murderers are so near us; but, in short, sir, I was commander of that ship—my men have mutinied against me; they have been hardly prevailed on not to murder me, and, at last, have set me on shore in this desolate place, with these two men with me—one my mate, the other a passenger—where we expected to perish, believing the place to be uninhabited, and know not yet what to think of it.”</t>
+  </si>
+  <si>
+    <t>There they lie, sir,” said he, pointing to a thicket of trees; “my heart trembles for fear they have seen us and heard you speak; if they have, they will certainly murder us all.”</t>
+  </si>
+  <si>
+    <t>He answered, “They had only two pieces, one of which they left in the boat.”</t>
+  </si>
+  <si>
+    <t>“Well,” says I, “let us retreat out of their view or hearing, lest they awake, and we will resolve further.”</t>
+  </si>
+  <si>
+    <t>“Well,” says I, “my conditions are but two; first, that while you stay in this island with me, you will not pretend to any authority here; and if I put arms in your hands, you will, upon all occasions, give them up to me, and do no prejudice to me or mine upon this island, and in the meantime be governed by my orders; secondly, that if the ship is or may be recovered, you will carry me and my man to England passage free.”</t>
+  </si>
+  <si>
+    <t>“Well, then,” said I, “here are three muskets for you, with powder and ball; tell me next what you think is proper to be done.”</t>
+  </si>
+  <si>
+    <t>“Well, then,” says I, “necessity legitimates my advice, for it is the only way to save our lives.”</t>
+  </si>
+  <si>
+    <t>He said, “No.”</t>
+  </si>
+  <si>
+    <t>Now,” says I, “if the rest escape you, it is your fault.”</t>
   </si>
 </sst>
 </file>
@@ -674,20 +722,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +871,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +887,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +895,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +911,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +919,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +927,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +935,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +951,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +959,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +967,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +975,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +983,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +991,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +1007,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +1015,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +1023,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +1031,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +1039,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +1047,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1055,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1063,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1071,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1079,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1087,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1095,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1103,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1111,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1119,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1127,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1135,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1143,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1151,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1159,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1167,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1175,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1183,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1191,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1199,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1207,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1215,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1223,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1231,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1239,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1247,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1255,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1263,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1271,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1279,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1287,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,7 +1295,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1303,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,7 +1311,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1319,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1327,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1335,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1343,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,7 +1351,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1359,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,7 +1367,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1375,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1383,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1391,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1399,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1407,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,7 +1415,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1423,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1383,7 +1431,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1391,7 +1439,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1399,7 +1447,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,7 +1455,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1463,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1471,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1479,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1487,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1495,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1503,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1511,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1471,7 +1519,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1479,7 +1527,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,7 +1535,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1543,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1551,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1511,7 +1559,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1567,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1527,7 +1575,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1535,7 +1583,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1591,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1599,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1607,135 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
